--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335715.243285037</v>
+        <v>1421082.549318298</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>227.9187527607135</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>28.19474928071404</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015063</v>
@@ -710,10 +712,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -792,13 +794,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>28.41890775688401</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>61.22117863179697</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.05955538367324</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>248.1920235529912</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>93.35210793803479</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539885</v>
+        <v>94.01296546539848</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>29.81888298993713</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>35.06005302971068</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813378</v>
+        <v>33.7470356681336</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>175.8561634490155</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>36.30444561203912</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>57.47007746145576</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>138.2963543483438</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.4821493078639</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>84.54598091112528</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835173</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>52.74455946606892</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3606546765282</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>89.00910616898207</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899699</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>93.34864969808328</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>150.748062248108</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3423628479704</v>
+        <v>220.2829721113069</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.380068175847409</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>17.35112070699488</v>
+        <v>136.0870494265619</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>121.5091210367485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>30.96411613815183</v>
       </c>
       <c r="I28" t="n">
-        <v>59.65570400449391</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>173.5578851713666</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>29.79083409899386</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>77.31354443380519</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.1480515981185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>36.89863216765543</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.9115438999869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.78023945356849</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>197.204009878858</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>155.7123319296398</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.39022724310056</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>14.31259208839208</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>257.4740806085296</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>98.76492394485608</v>
+        <v>59.90320919298833</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>44.43736064133194</v>
       </c>
       <c r="G41" t="n">
-        <v>179.0944876018805</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>84.69473660442777</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1043346164852</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>153.4696656457194</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4150,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>224.7562560951378</v>
       </c>
       <c r="W46" t="n">
-        <v>27.00971856836508</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="D2" t="n">
-        <v>670.3237564101303</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="E2" t="n">
-        <v>670.3237564101303</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="F2" t="n">
         <v>403.9460998429522</v>
@@ -4358,22 +4360,22 @@
         <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946894</v>
+        <v>432.4256445709462</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>239.9155982686269</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4407,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4440,19 +4442,19 @@
         <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849059</v>
+        <v>662.3682920168965</v>
       </c>
       <c r="V3" t="n">
-        <v>227.7863052531632</v>
+        <v>662.3682920168965</v>
       </c>
       <c r="W3" t="n">
-        <v>165.9467308776107</v>
+        <v>408.1309352886949</v>
       </c>
       <c r="X3" t="n">
-        <v>165.9467308776107</v>
+        <v>408.1309352886949</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>408.1309352886949</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.84413604019448</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>89.84413604019448</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D4" t="n">
-        <v>89.84413604019448</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>89.84413604019448</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>89.84413604019448</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>89.84413604019448</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>89.84413604019448</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4495,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165363</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745506</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073725</v>
+        <v>804.1565063161349</v>
       </c>
       <c r="V4" t="n">
-        <v>356.2217926073725</v>
+        <v>804.1565063161349</v>
       </c>
       <c r="W4" t="n">
-        <v>89.84413604019448</v>
+        <v>804.1565063161349</v>
       </c>
       <c r="X4" t="n">
-        <v>89.84413604019448</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.84413604019448</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="C5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.913873701023</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.913873701023</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9279689114151</v>
+        <v>856.9279689114148</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244641</v>
+        <v>440.4816599244638</v>
       </c>
       <c r="H5" t="n">
-        <v>128.828027770548</v>
+        <v>128.8280277705478</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135721</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780283</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.9975490818703</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373967</v>
+        <v>509.5409587374002</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176454</v>
+        <v>806.6359018176504</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.394365921693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567861</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567861</v>
+        <v>1521.554259133742</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567861</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="V5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="W5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="X5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.20893222429</v>
+        <v>1267.913873701022</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>723.0906195821292</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>548.6375903010022</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>399.7031806397509</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>240.4657256342954</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>205.0515306547897</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135721</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324407</v>
+        <v>59.47586665324476</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650489</v>
+        <v>443.2235805075032</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877833</v>
+        <v>653.4921936302387</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445239</v>
+        <v>918.2226155869805</v>
       </c>
       <c r="N6" t="n">
-        <v>1035.391639600095</v>
+        <v>1214.928803768951</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.47641494314</v>
+        <v>1454.476414943149</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557608</v>
+        <v>1627.401425557618</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232574</v>
+        <v>1693.078019232585</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567861</v>
+        <v>1550.180157843117</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567861</v>
+        <v>1354.574272178456</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567861</v>
+        <v>1126.45806483394</v>
       </c>
       <c r="V6" t="n">
-        <v>1693.271819567861</v>
+        <v>891.3059566021973</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.639331235522</v>
+        <v>891.3059566021973</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.787831029989</v>
+        <v>891.3059566021973</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>891.3059566021973</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.8308051558134</v>
+        <v>766.7459452354166</v>
       </c>
       <c r="C7" t="n">
-        <v>504.8308051558134</v>
+        <v>766.7459452354166</v>
       </c>
       <c r="D7" t="n">
-        <v>354.7141657434777</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="E7" t="n">
-        <v>354.7141657434777</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="F7" t="n">
-        <v>354.7141657434777</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="G7" t="n">
-        <v>186.3950633429644</v>
+        <v>301.4202559246572</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135721</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652171</v>
+        <v>36.28512133652222</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128593</v>
+        <v>170.0982437128603</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119579</v>
+        <v>396.8594047119595</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191526</v>
+        <v>646.336377819155</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361639</v>
+        <v>895.3159625361669</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021383</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933644</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230138</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="T7" t="n">
-        <v>975.8964400230138</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="U7" t="n">
-        <v>975.8964400230138</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="V7" t="n">
-        <v>975.8964400230138</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="W7" t="n">
-        <v>686.4792699860532</v>
+        <v>1006.444993360056</v>
       </c>
       <c r="X7" t="n">
-        <v>686.4792699860532</v>
+        <v>1006.444993360056</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.4792699860532</v>
+        <v>948.3944100656563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2089.201192311901</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.061860336089</v>
+        <v>2379.02402606898</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908477</v>
+        <v>114.5432626034355</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143504</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458222</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>641.9376744406312</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>473.0014915127243</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>473.0014915127243</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1448.462732871771</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1159.344395375609</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1159.344395375609</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>869.9272253386486</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>641.9376744406312</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>641.9376744406312</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5054,37 +5056,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609172</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5142,16 +5144,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5163,7 +5165,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738584</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>583.8261120459515</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>433.7094726336157</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7094726336157</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>433.7094726336157</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>266.0066360083347</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>119.7894492261925</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5233,16 +5235,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845646</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947628</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040981</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.061124352532</v>
+        <v>1148.130683918831</v>
       </c>
       <c r="C14" t="n">
-        <v>663.0986074121199</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D14" t="n">
-        <v>304.8329088053694</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E14" t="n">
-        <v>304.8329088053694</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F14" t="n">
-        <v>304.8329088053694</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>304.8329088053694</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3235.697633559694</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>2982.16715683353</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>2651.104269489959</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653545</v>
+        <v>2298.335614219845</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>1924.869855958765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416653</v>
+        <v>1534.730523982953</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5431,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,22 +5460,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X16" t="n">
         <v>1494.054724415577</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1285.591601078693</v>
+        <v>2028.499588324621</v>
       </c>
       <c r="C17" t="n">
-        <v>916.6290841382818</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>558.3633855315313</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>558.3633855315313</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>558.3633855315313</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649821</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379707</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.330773118627</v>
+        <v>2415.099428388743</v>
       </c>
       <c r="Y17" t="n">
-        <v>1672.191441142815</v>
+        <v>2415.099428388743</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
         <v>477.7578170212613</v>
@@ -5668,19 +5670,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.46409084602</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.795585684488</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.833068744076</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U20" t="n">
-        <v>2769.597645067992</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="V20" t="n">
-        <v>2438.534757724422</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W20" t="n">
-        <v>2438.534757724422</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X20" t="n">
-        <v>2438.534757724422</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2048.39542574861</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.8928126690271</v>
+        <v>1580.454360204532</v>
       </c>
       <c r="C22" t="n">
-        <v>72.9566297411202</v>
+        <v>1580.454360204532</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>1580.454360204532</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193523</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>3044.089480193523</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>2754.986613319167</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>2500.30212511328</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408143</v>
+        <v>2210.884955076319</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427969</v>
+        <v>1982.895404178302</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.5412774992668</v>
+        <v>1762.102825034772</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5998,13 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296686</v>
@@ -6017,16 +6019,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3197.788768583745</v>
+        <v>3077.853487048829</v>
       </c>
       <c r="U23" t="n">
-        <v>3197.788768583745</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="V23" t="n">
-        <v>3197.788768583745</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W23" t="n">
-        <v>3197.788768583745</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X23" t="n">
         <v>2824.323010322666</v>
@@ -6042,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6145,16 +6147,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6166,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V25" t="n">
-        <v>1914.135768168901</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.71859813194</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X25" t="n">
-        <v>1396.729047233923</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2098.941407629259</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218339</v>
@@ -6230,13 +6232,13 @@
         <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2862.54649786615</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.08073960507</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2098.941407629259</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="C28" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="D28" t="n">
-        <v>440.6904267128328</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="E28" t="n">
-        <v>440.6904267128328</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="F28" t="n">
-        <v>440.6904267128328</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="G28" t="n">
-        <v>272.9875900875518</v>
+        <v>195.1146786018702</v>
       </c>
       <c r="H28" t="n">
-        <v>126.7704033054096</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218339</v>
@@ -6424,10 +6426,10 @@
         <v>590.8070661251686</v>
       </c>
       <c r="X28" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038043</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D29" t="n">
-        <v>1453.669719097631</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E29" t="n">
-        <v>1067.881466499387</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>656.8955617097795</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>241.8231115547759</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3295.514069994025</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3041.983593267862</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102165</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1779.97675966291</v>
+        <v>1861.97070162018</v>
       </c>
       <c r="C31" t="n">
-        <v>1611.040576735003</v>
+        <v>1693.034518692273</v>
       </c>
       <c r="D31" t="n">
-        <v>1611.040576735003</v>
+        <v>1542.917879279937</v>
       </c>
       <c r="E31" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F31" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G31" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H31" t="n">
         <v>1464.823389952861</v>
@@ -6649,22 +6651,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>3103.839206178697</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>2814.73633930434</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V31" t="n">
-        <v>2560.051851098453</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W31" t="n">
-        <v>2410.407354534697</v>
+        <v>2492.401296491967</v>
       </c>
       <c r="X31" t="n">
-        <v>2182.41780363668</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y31" t="n">
-        <v>1961.62522449315</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V32" t="n">
-        <v>2828.826251643334</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W32" t="n">
-        <v>2828.826251643334</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X32" t="n">
-        <v>2455.360493382254</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.221161406442</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1633.759572880767</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>1540.336209604299</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682807</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W34" t="n">
-        <v>2036.200616854537</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X34" t="n">
-        <v>2036.200616854537</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y34" t="n">
-        <v>1815.408037711007</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3304.615680746979</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.085204020816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2720.022316677245</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2367.25366140713</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,16 +7028,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7123,22 +7125,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W37" t="n">
-        <v>1356.361036635886</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X37" t="n">
-        <v>1128.371485737869</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y37" t="n">
-        <v>1091.613680441807</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1661.795585684488</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.833068744076</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
@@ -7175,7 +7177,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
@@ -7187,7 +7189,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883006</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W38" t="n">
-        <v>2812.000515985501</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X38" t="n">
-        <v>2438.534757724422</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y38" t="n">
-        <v>2048.39542574861</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,13 +7268,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.3234075408134</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C40" t="n">
-        <v>872.3234075408134</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218339</v>
@@ -7336,19 +7338,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
@@ -7360,22 +7362,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783661</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577774</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408134</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X40" t="n">
-        <v>872.3234075408134</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y40" t="n">
-        <v>872.3234075408134</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1771.41801219738</v>
+        <v>1979.06775675439</v>
       </c>
       <c r="C41" t="n">
-        <v>1402.455495256968</v>
+        <v>1610.105239813978</v>
       </c>
       <c r="D41" t="n">
-        <v>1044.189796650218</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E41" t="n">
-        <v>658.4015440519734</v>
+        <v>866.0512886089832</v>
       </c>
       <c r="F41" t="n">
-        <v>247.4156392623658</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
@@ -7415,46 +7417,46 @@
         <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792696</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.483610522581</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.017852261502</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y41" t="n">
-        <v>2158.017852261502</v>
+        <v>2365.667596818511</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>532.4548862703364</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="C43" t="n">
-        <v>363.5187033424295</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300938</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7573,46 +7575,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U43" t="n">
-        <v>1706.987139384971</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>1452.302651179084</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W43" t="n">
-        <v>1162.885481142124</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X43" t="n">
-        <v>934.8959302441062</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="Y43" t="n">
-        <v>714.1033511005761</v>
+        <v>333.7108202567946</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1844.338003964587</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1475.375487024176</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>934.567370137326</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477183</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2994.542934265601</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X44" t="n">
-        <v>2621.077176004521</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2230.937844028709</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7721,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158128</v>
@@ -7743,10 +7745,10 @@
         <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V46" t="n">
-        <v>1424.011591242372</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W46" t="n">
-        <v>1396.729047233923</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X46" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157979</v>
+        <v>25.82445471157919</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>93.78173256953886</v>
+        <v>10.6671664345875</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3506708776249</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589524</v>
+        <v>0.9556134883071792</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>296.7574771839101</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192223</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.60786094376917</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23473,10 +23475,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>100.2471097107923</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>114.9088639706381</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.2833318990672</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>271.9242420729242</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>260.1736634053455</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.65280911093157</v>
+        <v>30.71219984759512</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>142.2354048423649</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>31.95930209741356</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>186.5668494326253</v>
+        <v>67.83092071305828</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>11.61860823624281</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>243.7637707342591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>113.790898776169</v>
       </c>
       <c r="I28" t="n">
-        <v>36.69671640534421</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>121.0498792159538</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>174.1271360406263</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276398</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24889,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.3749467384725</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>290.8536263024795</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>21.59472895491439</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.61145443660408</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>183.1377306860517</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>152.036958838555</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>69.99732345939739</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.1944261089942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>94.87516969978377</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>91.76688810888345</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>49.85054907335628</v>
+        <v>88.71226382522403</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>362.4386851003795</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8272380515729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>11.65768380541034</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.10750358912767</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>201.2133759749635</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>27.38138722869019</v>
       </c>
       <c r="W46" t="n">
-        <v>259.5132797682259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775782.6881947444</v>
+        <v>775782.6881947443</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775782.6881947442</v>
+        <v>775782.6881947444</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775782.6881947441</v>
+        <v>775782.6881947438</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775782.6881947442</v>
+        <v>775782.6881947441</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775782.6881947442</v>
+        <v>775782.6881947441</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775782.6881947439</v>
+        <v>775782.6881947443</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775782.6881947441</v>
+        <v>775782.6881947442</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775782.6881947441</v>
+        <v>775782.6881947439</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775782.6881947442</v>
+        <v>775782.6881947441</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="G2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="H2" t="n">
         <v>426246.3737136507</v>
@@ -26338,7 +26340,7 @@
         <v>426246.3737136507</v>
       </c>
       <c r="K2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="L2" t="n">
         <v>426246.3737136507</v>
@@ -26347,13 +26349,13 @@
         <v>426246.3737136507</v>
       </c>
       <c r="N2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="O2" t="n">
         <v>426246.3737136508</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>426246.3737136509</v>
-      </c>
-      <c r="P2" t="n">
-        <v>426246.373713651</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739483</v>
+        <v>176672.6241739512</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819091</v>
+        <v>223886.3093819062</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171909</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640771</v>
+        <v>41076.98154640838</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946854</v>
+        <v>54988.29121946789</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>200657.5583474232</v>
+        <v>200657.5583474225</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26430,34 +26432,34 @@
         <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="I4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="J4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="K4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="L4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="M4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="N4" t="n">
-        <v>9160.45913707919</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="O4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.45913707919</v>
+        <v>9160.459137079168</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.87167923125</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26497,19 +26499,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-478527.9443168292</v>
+        <v>-478527.944316829</v>
       </c>
       <c r="C6" t="n">
-        <v>60074.05196457449</v>
+        <v>60074.05196457186</v>
       </c>
       <c r="D6" t="n">
-        <v>59600.75065132073</v>
+        <v>59600.75065132367</v>
       </c>
       <c r="E6" t="n">
-        <v>160706.5941979874</v>
+        <v>160706.5941979875</v>
       </c>
       <c r="F6" t="n">
-        <v>342779.5740151784</v>
+        <v>342779.5740151781</v>
       </c>
       <c r="G6" t="n">
-        <v>342779.5740151785</v>
+        <v>342779.5740151783</v>
       </c>
       <c r="H6" t="n">
-        <v>342779.5740151783</v>
+        <v>342779.5740151786</v>
       </c>
       <c r="I6" t="n">
-        <v>342779.5740151783</v>
+        <v>342779.574015178</v>
       </c>
       <c r="J6" t="n">
-        <v>273780.4195960643</v>
+        <v>273780.4195960641</v>
       </c>
       <c r="K6" t="n">
-        <v>301702.5924687705</v>
+        <v>301702.5924687699</v>
       </c>
       <c r="L6" t="n">
-        <v>287791.2827957098</v>
+        <v>287791.2827957104</v>
       </c>
       <c r="M6" t="n">
         <v>295227.3082217633</v>
       </c>
       <c r="N6" t="n">
+        <v>342779.5740151783</v>
+      </c>
+      <c r="O6" t="n">
         <v>342779.5740151784</v>
-      </c>
-      <c r="O6" t="n">
-        <v>342779.5740151785</v>
       </c>
       <c r="P6" t="n">
         <v>342779.5740151785</v>
@@ -26738,13 +26740,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908047</v>
+        <v>751.4467899908071</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26790,22 +26792,22 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919652</v>
+        <v>423.3179548919679</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26817,19 +26819,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213264</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267345</v>
+        <v>182.6181021267321</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.604074890459</v>
+        <v>159.6040748904616</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080738</v>
+        <v>217.266877208071</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904592</v>
+        <v>159.6040748904618</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080735</v>
+        <v>217.266877208071</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890459</v>
+        <v>159.6040748904616</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080738</v>
+        <v>217.266877208071</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>126.7642888599694</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>378.6812964609974</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442038</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27512,13 +27514,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>197.4355797466706</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>190.4738045291226</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>54.09101814113529</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>38.0666069496863</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>261.3309336826482</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>180.0530135161651</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27704,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>110.0091593636732</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>75.83881971190414</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>113.8749406558757</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>161.114575890639</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>231.4347463301252</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.7557893481897</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>136.2027150860866</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053484</v>
+        <v>3.020891618053494</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339025</v>
+        <v>30.93770628339035</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677671</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599712</v>
+        <v>384.2687421599724</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159756</v>
+        <v>476.7193540159771</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285343</v>
+        <v>530.4421353285359</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383288</v>
+        <v>539.0252436383305</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113094</v>
+        <v>508.986252611311</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906139</v>
+        <v>434.4079907906153</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190734</v>
+        <v>326.2223097190745</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025523</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639384</v>
+        <v>68.83856774639406</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395998</v>
       </c>
       <c r="I6" t="n">
-        <v>55.6495971832813</v>
+        <v>55.64959718328148</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433206</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876867</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449886</v>
+        <v>409.5385005449899</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034573</v>
+        <v>420.3777660345743</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587848</v>
+        <v>384.563528458786</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.6461353077336</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633072</v>
+        <v>30.02242599633081</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807069</v>
+        <v>6.51490188680709</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950636</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720627</v>
+        <v>40.7505898572064</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390964</v>
+        <v>95.80330632390994</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029915</v>
+        <v>157.434261902992</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706794</v>
+        <v>212.4130655706801</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.5326998488045</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.8893130170114</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886119</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843474</v>
+        <v>60.92878398843493</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544872</v>
+        <v>23.6151392854488</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879969</v>
+        <v>5.789835922879988</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548907</v>
+        <v>0.07391279901548931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623219</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34390,7 +34392,7 @@
         <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563597</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806946</v>
@@ -34463,7 +34465,7 @@
         <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108084</v>
+        <v>75.34849544108164</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149906</v>
+        <v>164.1788911149919</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459884</v>
+        <v>240.9529390459899</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012616</v>
+        <v>300.0959021012632</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417379</v>
+        <v>309.6121800417396</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896226</v>
+        <v>278.8880411896242</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353444</v>
+        <v>203.1749950353458</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446239</v>
+        <v>103.916619844625</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665339</v>
+        <v>25.86912147665387</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755605</v>
+        <v>387.6239533881399</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078126</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229702</v>
+        <v>267.4044666229715</v>
       </c>
       <c r="N6" t="n">
-        <v>382.8177865207785</v>
+        <v>299.7032203858285</v>
       </c>
       <c r="O6" t="n">
-        <v>423.3179548919652</v>
+        <v>241.9672840143415</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934024</v>
+        <v>174.6717278934034</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107644</v>
+        <v>66.33999361107709</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144307999</v>
+        <v>0.1957579144311126</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236863</v>
+        <v>2.444126207237161</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771092</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768673</v>
+        <v>229.051677776868</v>
       </c>
       <c r="M7" t="n">
-        <v>251.99694253252</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628435</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819049</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691713</v>
+        <v>27.30642203691748</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681266</v>
+        <v>63.9358343792246</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923347</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222755</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q45" t="n">
         <v>159.233896612727</v>
